--- a/FinelFiles/VQA_TestSet.xlsx
+++ b/FinelFiles/VQA_TestSet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="459">
   <si>
     <t>Images</t>
   </si>
@@ -27,60 +27,51 @@
     <t>Answers</t>
   </si>
   <si>
-    <t>JNRP-3-68-g002</t>
-  </si>
-  <si>
-    <t>what show  cystic nature of giant occipital encephalocele with small amount of brain tissue?</t>
+    <t>crg-0009-0200-g01</t>
+  </si>
+  <si>
+    <t>what show intact brain structures with no signs of obstructive hydrocephalus?</t>
+  </si>
+  <si>
+    <t>mri of  brain</t>
+  </si>
+  <si>
+    <t>13256_2014_3041_Fig2_HTML</t>
+  </si>
+  <si>
+    <t>what show no abnormalities?</t>
+  </si>
+  <si>
+    <t>diffusion weighted axial mri brain image</t>
+  </si>
+  <si>
+    <t>SHORTS-10-00901</t>
+  </si>
+  <si>
+    <t>what show absence of joint effusion and normal synovial covering?</t>
+  </si>
+  <si>
+    <t>mri of hip joints</t>
+  </si>
+  <si>
+    <t>JNRP-6-257-g004</t>
+  </si>
+  <si>
+    <t>what show moderate degenerative disc disease at l1 2?</t>
+  </si>
+  <si>
+    <t>a sagittal view of t2 weighted mri of lumbar spine</t>
+  </si>
+  <si>
+    <t>IJEM-16-509-g002</t>
+  </si>
+  <si>
+    <t>what show hypoplastic pituitary with visible stalk and absent splenium of corpus callosum?</t>
   </si>
   <si>
     <t>mri brain</t>
   </si>
   <si>
-    <t>kjae-64-388-g001</t>
-  </si>
-  <si>
-    <t>what show a subarachnoid hematoma near l5?</t>
-  </si>
-  <si>
-    <t>t2 weighted sagittal mri</t>
-  </si>
-  <si>
-    <t>AIAN-18-11-g002</t>
-  </si>
-  <si>
-    <t>what show longitudinally extensive transverse myelitis involving  cervical and upper thoracic cord?</t>
-  </si>
-  <si>
-    <t>T2-weighted mri scan</t>
-  </si>
-  <si>
-    <t>ORT-85-438-g006</t>
-  </si>
-  <si>
-    <t>what show pelvic chondrosarcoma?</t>
-  </si>
-  <si>
-    <t>axial mri slice</t>
-  </si>
-  <si>
-    <t>JOMFP-19-92-g002</t>
-  </si>
-  <si>
-    <t>what show hypointense areas suggestive of fat?</t>
-  </si>
-  <si>
-    <t>mri stir image</t>
-  </si>
-  <si>
-    <t>1752-1947-7-278-1</t>
-  </si>
-  <si>
-    <t>what show  dilated common bile duct with a filling defect within it indicating  tumor extending?</t>
-  </si>
-  <si>
-    <t>mri image of  liver</t>
-  </si>
-  <si>
     <t>ymj-52-1044-g001</t>
   </si>
   <si>
@@ -90,6 +81,78 @@
     <t>coronal mri</t>
   </si>
   <si>
+    <t>IJPsyM-31-92-g004</t>
+  </si>
+  <si>
+    <t>what show agenesis of corpus callosum with parallel lateral ventricles?</t>
+  </si>
+  <si>
+    <t>coronal t2 mri of  patient</t>
+  </si>
+  <si>
+    <t>IJOrtho-41-72-g005</t>
+  </si>
+  <si>
+    <t>what show  bony strut with spinal dyraphism?</t>
+  </si>
+  <si>
+    <t>axial t1w mri</t>
+  </si>
+  <si>
+    <t>crg-0008-0264-g01</t>
+  </si>
+  <si>
+    <t>what show increased intramedullary signal intensity at  t10 level?</t>
+  </si>
+  <si>
+    <t>t2 weighted sagittal mri of  spine</t>
+  </si>
+  <si>
+    <t>1752-1947-5-210-3</t>
+  </si>
+  <si>
+    <t>what show no parenchymatous tissue or enhancement in  calcified lesion of  tricuspid valve?</t>
+  </si>
+  <si>
+    <t>cardiac mri</t>
+  </si>
+  <si>
+    <t>kjs-12-5-g004</t>
+  </si>
+  <si>
+    <t>what shows concurrent multiple intracranial tuberculoma?</t>
+  </si>
+  <si>
+    <t>case 11 mri brain with contrast</t>
+  </si>
+  <si>
+    <t>JCVJS-5-52-g002</t>
+  </si>
+  <si>
+    <t>what show collapse of c7 with large epidural abscess and posterior granulation tissue with significant cord compression?</t>
+  </si>
+  <si>
+    <t>mri cervical spine</t>
+  </si>
+  <si>
+    <t>SNI-4-79-g004</t>
+  </si>
+  <si>
+    <t>what show  improvement of  cerebellar tonsillar herniation?</t>
+  </si>
+  <si>
+    <t>postoperative sagittal t2 weighted mri one week after fmd</t>
+  </si>
+  <si>
+    <t>1752-1947-4-158-4</t>
+  </si>
+  <si>
+    <t>what show muscle wasting of  right trapezius and sternocleidomastoid muscles?</t>
+  </si>
+  <si>
+    <t>mri of  neck</t>
+  </si>
+  <si>
     <t>JPN-6-55-g002</t>
   </si>
   <si>
@@ -99,22 +162,22 @@
     <t>mri t1w image</t>
   </si>
   <si>
-    <t>JGID-3-306-g002</t>
-  </si>
-  <si>
-    <t>what show starry sky sign of disseminated neurocysticercosis?</t>
-  </si>
-  <si>
-    <t>t2 weighted mri brain image</t>
-  </si>
-  <si>
-    <t>SNI-2-47-g003</t>
-  </si>
-  <si>
-    <t>what show tumor involvement at  vertebral bodies of t3 and t4?</t>
-  </si>
-  <si>
-    <t>t2-weighed sagittal mri</t>
+    <t>crn-0007-0084-g01</t>
+  </si>
+  <si>
+    <t>what shows a cerebellar atrophy most pronounced in  vermis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mri sequence</t>
+  </si>
+  <si>
+    <t>ijmsv07p0248g01</t>
+  </si>
+  <si>
+    <t>what show a large temporal mass secondary to  glioblastoma at  site of  previous intracerebral hematoma?</t>
+  </si>
+  <si>
+    <t>mri of  head</t>
   </si>
   <si>
     <t>1477-7800-5-1-1</t>
@@ -126,361 +189,898 @@
     <t>pre operative mri coronal view</t>
   </si>
   <si>
-    <t>JPN-10-55-g002</t>
-  </si>
-  <si>
-    <t>what show incomplete ring enhancement which is open towards  gray matter?</t>
-  </si>
-  <si>
-    <t>mri of brain with gadolinium</t>
-  </si>
-  <si>
-    <t>IJOrtho-48-220-g003</t>
-  </si>
-  <si>
-    <t>what show resolution of lesions?</t>
-  </si>
-  <si>
-    <t>followup mri brain</t>
-  </si>
-  <si>
-    <t>IJEM-16-501-g004</t>
-  </si>
-  <si>
-    <t>what show atrophy pituitary glands with preserved infundibulum and hypothalamus?</t>
-  </si>
-  <si>
-    <t>kjo-22-263-g001</t>
-  </si>
-  <si>
-    <t>what show  diffuse atrophy in  cerebellum?</t>
+    <t>asj-3-89-g001</t>
+  </si>
+  <si>
+    <t>what show healthy back muscle?</t>
+  </si>
+  <si>
+    <t>mri of  preoperative</t>
+  </si>
+  <si>
+    <t>1471-2334-12-232-2</t>
+  </si>
+  <si>
+    <t>what show extensive involvement of  spinal cord from t4 downwards with foci of t2w hyperintensity and meningeal enhancement?</t>
+  </si>
+  <si>
+    <t>mri thoracolumbar spine</t>
+  </si>
+  <si>
+    <t>IndianJOphthalmol-56-159-g002</t>
+  </si>
+  <si>
+    <t>what shows right occipital lobe hemorrhage?</t>
   </si>
   <si>
     <t>brain mri</t>
   </si>
   <si>
-    <t>ASJSM-4-158-g001</t>
-  </si>
-  <si>
-    <t>what show a high grade lesion of  proximal insertion of  mcl?</t>
-  </si>
-  <si>
-    <t>mri t2 coronal and transversal images</t>
-  </si>
-  <si>
-    <t>0392-100X-33-347-g001</t>
-  </si>
-  <si>
-    <t>what show a left sphenoid sinus mass with homogeneous contrast enhancement?</t>
-  </si>
-  <si>
-    <t>t1 weighted mri with intravenous gadolinium enhancement</t>
-  </si>
-  <si>
-    <t>JNSBM-6-241-g004</t>
-  </si>
-  <si>
-    <t>what show hyperintense mass in nasal cavity?</t>
-  </si>
-  <si>
-    <t>sagittal section of mri</t>
-  </si>
-  <si>
-    <t>jceh_25_79-80_001_f21</t>
-  </si>
-  <si>
-    <t>what shows a large pituitary adenoma responsible for visual loss in both eyes?</t>
-  </si>
-  <si>
-    <t>an mri</t>
-  </si>
-  <si>
-    <t>IJSS-7-127-g003</t>
-  </si>
-  <si>
-    <t>what show partial tearing of  supraspinatus tendon attachment?</t>
-  </si>
-  <si>
-    <t>t2 weighted coronal mri</t>
-  </si>
-  <si>
-    <t>SHORTS-11-14501</t>
-  </si>
-  <si>
-    <t>who show epidural haematoma?</t>
-  </si>
-  <si>
-    <t>mri cervical spine</t>
-  </si>
-  <si>
-    <t>icrj-08-178-g001</t>
-  </si>
-  <si>
-    <t>what shows low ejection fraction with dilated cardiac chambers and diffuse enhancement of myocardium compatible with myocarditis?</t>
-  </si>
-  <si>
-    <t>cardiac mri</t>
-  </si>
-  <si>
-    <t>LJM-8-20359-g003</t>
-  </si>
-  <si>
-    <t>what  mri of  left knee show?</t>
-  </si>
-  <si>
-    <t>marked flakes and nodular long signals on t2 weighted mri in  distal femur</t>
-  </si>
-  <si>
-    <t>JCVJS-2-82-g001</t>
-  </si>
-  <si>
-    <t>what show signal change within  cord?</t>
-  </si>
-  <si>
-    <t>preoperative t2 weighted sagittal mri</t>
-  </si>
-  <si>
-    <t>AIAN-14-313-g002</t>
-  </si>
-  <si>
-    <t>what show hypoechoic mass in distal pancreas?</t>
-  </si>
-  <si>
-    <t>axial section mri abdomen</t>
+    <t>IJEM-17-152-g002</t>
+  </si>
+  <si>
+    <t>what show normal pituitary with intact posterior pituitary hyperintensity?</t>
+  </si>
+  <si>
+    <t>mri of brain</t>
+  </si>
+  <si>
+    <t>JPN-7-61-g001</t>
+  </si>
+  <si>
+    <t>what show intramedullary abscess with rim enhancement extending from d6 to conus level?</t>
+  </si>
+  <si>
+    <t>contrast enhanced sagittal t1 weighted mri</t>
+  </si>
+  <si>
+    <t>crn-0007-0221-g02</t>
+  </si>
+  <si>
+    <t>what show basal enhancement of  leptomeninges?</t>
+  </si>
+  <si>
+    <t>t1 sequence of an mri</t>
+  </si>
+  <si>
+    <t>JIAPS-20-116-g002</t>
+  </si>
+  <si>
+    <t>what show eccentric placed neorectum to  right of sphincter muscle complex?</t>
+  </si>
+  <si>
+    <t>axial t2 weighted mri of  pelvis</t>
+  </si>
+  <si>
+    <t>AIAN-13-136-g001</t>
+  </si>
+  <si>
+    <t>what show t2 hyperintensity in  left thalamus that is extending into  corona radiata?</t>
+  </si>
+  <si>
+    <t>40064_2015_1232_Fig3_HTML</t>
+  </si>
+  <si>
+    <t>what show poorly delineated intramedullary hyperintense lesion?</t>
+  </si>
+  <si>
+    <t>t2 weighted mri of thoracic spine</t>
+  </si>
+  <si>
+    <t>omv06401</t>
+  </si>
+  <si>
+    <t>what show acute left thalamo corpuscular infarct?</t>
+  </si>
+  <si>
+    <t>mri brain with contrast</t>
+  </si>
+  <si>
+    <t>JCHIMP-5-27664-g001</t>
+  </si>
+  <si>
+    <t>what show scattered areas of t2 hyper intense signal within  white matter of  right cerebral hemisphere in  watershed areas?</t>
+  </si>
+  <si>
+    <t>contrast mri of  brain</t>
+  </si>
+  <si>
+    <t>crn-0006-0096-g01</t>
+  </si>
+  <si>
+    <t>what shows a distinct tiger striped appearance with abnormally oriented folia in  left cerebellar hemisphere?</t>
+  </si>
+  <si>
+    <t>t2 weighted mri</t>
+  </si>
+  <si>
+    <t>JCVJS-1-118-g002</t>
+  </si>
+  <si>
+    <t>what show  dysplastic of axis body?</t>
+  </si>
+  <si>
+    <t>mri of  cervical spine</t>
+  </si>
+  <si>
+    <t>1752-1947-2-123-1</t>
+  </si>
+  <si>
+    <t>what show  destructive changes of osteomyelitis in  proximal first metatarsal bone and adjacent medial cuneiform bone?</t>
+  </si>
+  <si>
+    <t>a mri of  foot</t>
+  </si>
+  <si>
+    <t>AJNS-5-19-g007</t>
+  </si>
+  <si>
+    <t>what show an ill defined contrast enhancing lesion in  suprasellar region?</t>
+  </si>
+  <si>
+    <t>tropmed-92-677-g001</t>
+  </si>
+  <si>
+    <t>what show an isointensity lesion on  t1 weighted image at  posterior aspect of  thoracic cal sac?</t>
+  </si>
+  <si>
+    <t>mri of thoracic spine</t>
+  </si>
+  <si>
+    <t>MEAJO-15-113-g002</t>
+  </si>
+  <si>
+    <t>what show delta sign demonstrating superior sinus thrombosis?</t>
+  </si>
+  <si>
+    <t>SNI-3-127-g013</t>
+  </si>
+  <si>
+    <t>what show  location of  subthalamic nucleus?</t>
+  </si>
+  <si>
+    <t>axial t2 weighted mri</t>
+  </si>
+  <si>
+    <t>1756-0500-6-412-1</t>
+  </si>
+  <si>
+    <t>what show a double bladder with urinary output of both kidneys to  bladders?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mri</t>
+  </si>
+  <si>
+    <t>SHORTS-10-02501</t>
+  </si>
+  <si>
+    <t>what show high intensity signal lesions within subcortical white matter and single larger lesion in left parietal region?</t>
+  </si>
+  <si>
+    <t>JMAS-01-133-g002</t>
+  </si>
+  <si>
+    <t>what show a pelvic kidney with a normal nephrogram and  surrounding fatty tissue?</t>
+  </si>
+  <si>
+    <t>postoperative mri</t>
+  </si>
+  <si>
+    <t>JNRP-4-352-g002</t>
+  </si>
+  <si>
+    <t>what show hyperintensity of splenium of corpus callosum?</t>
+  </si>
+  <si>
+    <t>mri of brain flair sequence</t>
+  </si>
+  <si>
+    <t>1752-1947-5-440-2</t>
+  </si>
+  <si>
+    <t>what shows  centrally herniated disk material narrowing  spinal canal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> corresponding axial t2 weighted mri image at l4 l5</t>
+  </si>
+  <si>
+    <t>IJA-57-206-g001</t>
+  </si>
+  <si>
+    <t>what show signal intensity abnormality in bilateral occipital lobes bilateral ischemic areas in occipital lobes?</t>
+  </si>
+  <si>
+    <t>mri imaging of brain</t>
+  </si>
+  <si>
+    <t>IJRI-18-69-g007</t>
+  </si>
+  <si>
+    <t>what show a hypointense wall and hyperintense internal contents suggestive of cystic degeneration?</t>
+  </si>
+  <si>
+    <t>coronal t2w fat suppressed mri</t>
+  </si>
+  <si>
+    <t>jkns-58-163-g001</t>
+  </si>
+  <si>
+    <t>what show left temporal lobe glioblastome multiforme?</t>
+  </si>
+  <si>
+    <t>preoperative sagital mri</t>
+  </si>
+  <si>
+    <t>1752-1947-6-282-3</t>
+  </si>
+  <si>
+    <t>what show a mass that shows moderate homogenous hyperintensity?</t>
+  </si>
+  <si>
+    <t>axial t2 weighted with fat suppression mri</t>
+  </si>
+  <si>
+    <t>PAMJ-21-213-g001</t>
+  </si>
+  <si>
+    <t>what show lesion with low signal in t1wi and heterogeneous high signal in t2wi?</t>
+  </si>
+  <si>
+    <t>preoperative mri</t>
+  </si>
+  <si>
+    <t>cios-2-121-g001</t>
+  </si>
+  <si>
+    <t>what shows a multiseptated cyst at  inferior aspect of  glenoid neck and a suspected labral tear?</t>
+  </si>
+  <si>
+    <t>mri of  left shoulder</t>
+  </si>
+  <si>
+    <t>IJOrtho-46-321-g002</t>
+  </si>
+  <si>
+    <t>what show low signal intensity mass in  same space?</t>
+  </si>
+  <si>
+    <t>transverse t2 weighted mri image</t>
+  </si>
+  <si>
+    <t>cnd-0005-0020-g01</t>
+  </si>
+  <si>
+    <t>what shows prominent bilateral enhancing parietal occipital lesions on flair and t2 sequences and small areas of hyperintensity in  left periventricular white matter on diffusion weighted images?</t>
+  </si>
+  <si>
+    <t>jkss-85-302-g001</t>
+  </si>
+  <si>
+    <t>what show a slightly distended gallbladder with a markedly edematous and multilayered wall?</t>
+  </si>
+  <si>
+    <t>Preoperative mri</t>
+  </si>
+  <si>
+    <t>1752-1947-8-245-3</t>
+  </si>
+  <si>
+    <t>what show a sagittal section?</t>
+  </si>
+  <si>
+    <t>mri of  thigh mass</t>
+  </si>
+  <si>
+    <t>1757-1626-1-203-2</t>
+  </si>
+  <si>
+    <t>what show evidence of injury due to herniation?</t>
+  </si>
+  <si>
+    <t>1477-7819-6-83-4</t>
+  </si>
+  <si>
+    <t>what shows an anterior mediastinal mass consistent with a thymic tumor?</t>
+  </si>
+  <si>
+    <t>mri of  chest</t>
+  </si>
+  <si>
+    <t>JOACP-29-415-g001</t>
+  </si>
+  <si>
+    <t>what show empty sella?</t>
+  </si>
+  <si>
+    <t>mri head t2 weighted axial view</t>
+  </si>
+  <si>
+    <t>1752-1947-2-90-1</t>
+  </si>
+  <si>
+    <t>what show senile dilatation in  csf space and sulci of brain hemispheres that is compatible with mild atrophic changes?</t>
+  </si>
+  <si>
+    <t>SHORTS-10-08902</t>
+  </si>
+  <si>
+    <t>what shows evidence of predominantly right frontal cerebritis with early abscess formation?</t>
+  </si>
+  <si>
+    <t>IJPsy-55-386-g001</t>
+  </si>
+  <si>
+    <t>what show bilateral basal ganglia calcification?</t>
+  </si>
+  <si>
+    <t>ct brain image</t>
+  </si>
+  <si>
+    <t>APC-5-95-g003</t>
+  </si>
+  <si>
+    <t>what show anomalous origin of right coronary artery from pulmonary artery?</t>
+  </si>
+  <si>
+    <t>axial section of ct angiogram</t>
+  </si>
+  <si>
+    <t>kjr-10-63-g010</t>
+  </si>
+  <si>
+    <t>what shows focal defect in inflamed appendiceal wall and periappendiceal inflammatory stranding?</t>
+  </si>
+  <si>
+    <t>transverse ct image</t>
+  </si>
+  <si>
+    <t>IJPharm-46-443-g003</t>
+  </si>
+  <si>
+    <t>what shows bilateral symmetric ground glass appearance involving  all lung areas?</t>
+  </si>
+  <si>
+    <t>thoracic ct</t>
+  </si>
+  <si>
+    <t>kjim-14-2-82-13f1</t>
+  </si>
+  <si>
+    <t>what shows an abscess with  air fluid level located outside  greater curvature of  stomach?</t>
+  </si>
+  <si>
+    <t>an abdominal ct</t>
+  </si>
+  <si>
+    <t>sfu07501</t>
+  </si>
+  <si>
+    <t>what show perinephric fluid surrounding renal cortex and parapelvic fluid?</t>
+  </si>
+  <si>
+    <t>coronal ct</t>
+  </si>
+  <si>
+    <t>1749-8090-8-109-4</t>
+  </si>
+  <si>
+    <t>what show false aneurysm of  innominate artery arising as a blind outpouching at  junction of innominate artery with  arch?</t>
+  </si>
+  <si>
+    <t>reformatted picture on ct</t>
+  </si>
+  <si>
+    <t>ijcpd-05-231-g018</t>
+  </si>
+  <si>
+    <t>what show fractured right frontal bone and fractured nasal bone?</t>
+  </si>
+  <si>
+    <t>3d ct</t>
+  </si>
+  <si>
+    <t>LI-29-81-g001</t>
+  </si>
+  <si>
+    <t>what show round mass within a cavity partially surrounded by a radiolucent crescent in apical segment of right lower lobe?</t>
+  </si>
+  <si>
+    <t>ct thorax</t>
+  </si>
+  <si>
+    <t>ATM-04-143-g004</t>
+  </si>
+  <si>
+    <t>what show posterior pneumorrhachis?</t>
+  </si>
+  <si>
+    <t>ct chest</t>
+  </si>
+  <si>
+    <t>2186-3326-76-0203-g004</t>
+  </si>
+  <si>
+    <t>what show  trial femoral head in  quadrilateral space in  posterior inner wall of  right pelvis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ct after surgery</t>
+  </si>
+  <si>
+    <t>ATM-04-75-g008</t>
+  </si>
+  <si>
+    <t>what show narrowing of  trachea following prolonged et placement?</t>
+  </si>
+  <si>
+    <t>a scout film from a ct</t>
+  </si>
+  <si>
+    <t>jksc-26-302-g002</t>
+  </si>
+  <si>
+    <t>what show a hypermetabolic lesion in  appendix nodule?</t>
+  </si>
+  <si>
+    <t>pet ct</t>
+  </si>
+  <si>
+    <t>JETS-3-412-g002</t>
+  </si>
+  <si>
+    <t>what shows pneumobilia and pneumoperitoneum anterior to  liver?</t>
+  </si>
+  <si>
+    <t>ct of  abdomen</t>
+  </si>
+  <si>
+    <t>ccr30003-0669-f2</t>
+  </si>
+  <si>
+    <t>what show aggregates of lymph nodes on  coeliomesenteric and portal regions?</t>
+  </si>
+  <si>
+    <t>abdominal ct</t>
+  </si>
+  <si>
+    <t>jkns-54-42-g001</t>
+  </si>
+  <si>
+    <t>what show  mass effect with right subfalcine herniation?</t>
+  </si>
+  <si>
+    <t>brain ct</t>
+  </si>
+  <si>
+    <t>2045-709X-19-2-4</t>
+  </si>
+  <si>
+    <t>what shows marked degenerative arthrosis at right l5 s1 facet?</t>
+  </si>
+  <si>
+    <t>ct image from spect ct</t>
+  </si>
+  <si>
+    <t>medi-94-e761-g001</t>
+  </si>
+  <si>
+    <t>what show a hypodense lesion in  right parapharyngeal space with peripheral enhancement?</t>
+  </si>
+  <si>
+    <t>neck ct</t>
   </si>
   <si>
     <t>asj-5-130-g002</t>
   </si>
   <si>
-    <t>what show  hematoma in  left aspect of  spinal canal?</t>
-  </si>
-  <si>
-    <t>preoperative lumbar mri</t>
-  </si>
-  <si>
-    <t>kjim-27-224-g002</t>
-  </si>
-  <si>
-    <t>what show an intra cardiac mass in  anterior side of  right atrial wall encasing a right coronary artery?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mri of  heart</t>
-  </si>
-  <si>
-    <t>1746-1340-15-18-6</t>
-  </si>
-  <si>
-    <t>what illustrates two distinct low signal intensity nodules with surrounding effusion posterior to  talo tibial joint?</t>
-  </si>
-  <si>
-    <t>sagittal mri of  left ankle</t>
-  </si>
-  <si>
-    <t>1752-1947-8-367-3</t>
-  </si>
-  <si>
-    <t>what show marked effusion over left hip joint?</t>
-  </si>
-  <si>
-    <t>t2 weighted mri transverse plane of pelvis</t>
-  </si>
-  <si>
-    <t>ijcn-8-001-g004</t>
-  </si>
-  <si>
-    <t>what shows foci of high signal in  cerebellum?</t>
-  </si>
-  <si>
-    <t>t2 weighted mri of  brain</t>
-  </si>
-  <si>
-    <t>SNI-3-23-g004</t>
-  </si>
-  <si>
-    <t>what is showing defect in  clivus with accompanying encephalocele?</t>
-  </si>
-  <si>
-    <t>midline saggital t1 weighted mri with contrast</t>
-  </si>
-  <si>
-    <t>eplasty13e06_fig6</t>
-  </si>
-  <si>
-    <t>what show trileaflet valve between left atrium and morphological right ventricle?</t>
-  </si>
-  <si>
-    <t>mri ssfp</t>
-  </si>
-  <si>
-    <t>JPN-8-254-g001</t>
-  </si>
-  <si>
-    <t>what show occipital encephalocoele?</t>
-  </si>
-  <si>
-    <t>t2 weighted axial mri</t>
-  </si>
-  <si>
-    <t>kjs-8-300-g003</t>
-  </si>
-  <si>
-    <t>what show disc protrusion compressing  left s1 root?</t>
-  </si>
-  <si>
-    <t>lumbar spine mri t2wi axial view</t>
-  </si>
-  <si>
-    <t>aob-21-226-g03</t>
-  </si>
-  <si>
-    <t>what show absence of talar avn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> t1 weighted mri image</t>
-  </si>
-  <si>
-    <t>JPN-7-136-g002</t>
-  </si>
-  <si>
-    <t>what show similar lesions involving  basal ganglia and  splenium of corpus callosum?</t>
-  </si>
-  <si>
-    <t>mri axial t2 flair section</t>
-  </si>
-  <si>
-    <t>AIAN-16-425-g003</t>
-  </si>
-  <si>
-    <t>what show bilateral symmetrical hyper intense lesions in periventricular white?</t>
-  </si>
-  <si>
-    <t>axial mri</t>
-  </si>
-  <si>
-    <t>AJNS-10-132-g003</t>
-  </si>
-  <si>
-    <t>what is showing complete removal of meningioma?</t>
-  </si>
-  <si>
-    <t>post operative contrast enhanced mri spine</t>
-  </si>
-  <si>
-    <t>asj-5-220-g004</t>
-  </si>
-  <si>
-    <t>what show  disc behind  body of c4 cervical vertebra appearing as hyperintense signal density?</t>
-  </si>
-  <si>
-    <t>mri t2 sagittal section</t>
-  </si>
-  <si>
-    <t>12957_2014_1881_Fig3_HTML</t>
-  </si>
-  <si>
-    <t>what show a low density renal pelvic mass and hydronephrosis of  left kidney?</t>
-  </si>
-  <si>
-    <t>Abdominal T2-weighted mri study</t>
-  </si>
-  <si>
-    <t>40064_2013_975_Fig2_HTML</t>
-  </si>
-  <si>
-    <t>what was  mass of?</t>
-  </si>
-  <si>
-    <t>of high intensity in t2 weighted mri images</t>
-  </si>
-  <si>
-    <t>kjs-12-5-g004</t>
-  </si>
-  <si>
-    <t>what shows concurrent multiple intracranial tuberculoma?</t>
-  </si>
-  <si>
-    <t>case 11 mri brain with contrast</t>
-  </si>
-  <si>
-    <t>1471-2377-4-19-2</t>
-  </si>
-  <si>
-    <t>what show a tumorous lesion of  median nerve with a fascicular pattern?</t>
-  </si>
-  <si>
-    <t>axial fat suppressed t2 weighted mri</t>
-  </si>
-  <si>
-    <t>IJD-53-217-g002</t>
-  </si>
-  <si>
-    <t>what show thickening of  skin and edema with hyperintense signal that involves  muscles of both thighs?</t>
-  </si>
-  <si>
-    <t>t2 weighted mri with fat suppression technique</t>
-  </si>
-  <si>
-    <t>IJOrtho-41-72-g006</t>
-  </si>
-  <si>
-    <t>what show large lipoma extending subcutaneously through  bony defect?</t>
-  </si>
-  <si>
-    <t>saggittal t1w mri</t>
-  </si>
-  <si>
-    <t>IJRI-19-266-g010</t>
-  </si>
-  <si>
-    <t>what shows benign fibrocystic changes?</t>
-  </si>
-  <si>
-    <t>mri guided biopsy</t>
-  </si>
-  <si>
-    <t>JNRP-5-244-g008</t>
-  </si>
-  <si>
-    <t>what proved rhabdoid meningioma?</t>
-  </si>
-  <si>
-    <t>a petroclival meningioma on mri and malignant features on histopathology</t>
-  </si>
-  <si>
-    <t>rjt12302</t>
-  </si>
-  <si>
-    <t>what show  tail of  appendix communicating with  appendiceal abscess?</t>
-  </si>
-  <si>
-    <t>a coronal ct with contrast</t>
-  </si>
-  <si>
-    <t>jkms-21-374-g004</t>
-  </si>
-  <si>
-    <t>what show small and narrow airway of choanal space?</t>
-  </si>
-  <si>
-    <t>three dimensional ct image of choanal air airway</t>
-  </si>
-  <si>
-    <t>cro-0006-0504-g02</t>
-  </si>
-  <si>
-    <t>what show bilateral multiple metastases in  lung parenchyma?</t>
+    <t>what  preoperative lumbar mri show?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hematoma in  left aspect of  spinal canal</t>
+  </si>
+  <si>
+    <t>ijo-27-395-g003</t>
+  </si>
+  <si>
+    <t>what  axial ct of  paranasal sinus with contrast show?</t>
+  </si>
+  <si>
+    <t>an expansion in  posterior aspect of  ethmoidal and sphenoidal sinus</t>
+  </si>
+  <si>
+    <t>cro-0005-0332-g01</t>
+  </si>
+  <si>
+    <t>what show  right hilar mass and  right sided interlobular septal thickening?</t>
+  </si>
+  <si>
+    <t>axial slice of  contrast enhanced ct</t>
+  </si>
+  <si>
+    <t>IJEM-16-664-g002</t>
+  </si>
+  <si>
+    <t>what show massive mng?</t>
+  </si>
+  <si>
+    <t>ct of neck</t>
+  </si>
+  <si>
+    <t>1757-1626-0002-0000006271-001</t>
+  </si>
+  <si>
+    <t>what show  left kidney and  over lying mass?</t>
+  </si>
+  <si>
+    <t>1752-1947-1-145-1</t>
+  </si>
+  <si>
+    <t>what show small bowel obstruction?</t>
+  </si>
+  <si>
+    <t>thnov02p0448g02</t>
+  </si>
+  <si>
+    <t>what show multiple lymph node metastases as well as large liver metastases?</t>
+  </si>
+  <si>
+    <t>68ga dota octreotide pet ctning with a patient with malignant carcinoid tumor</t>
+  </si>
+  <si>
+    <t>crn-0007-0115-g02</t>
+  </si>
+  <si>
+    <t>what   magnetic resonance venography show?</t>
+  </si>
+  <si>
+    <t>a segmental filling defect in  superior sagittal sinus and  non visualizability of some bilateral cortical veins</t>
+  </si>
+  <si>
+    <t>1749-8090-4-12-10</t>
+  </si>
+  <si>
+    <t>what show a wispy ill defined embolus in  upper lobar artery?</t>
+  </si>
+  <si>
+    <t>contrast ct angiogram of left pulmonary artery</t>
+  </si>
+  <si>
+    <t>kjped-53-913-g001</t>
+  </si>
+  <si>
+    <t>what show an ivh in both lateral ventricles with hydrocephalus and ich with perilesional edema in  right parietotemporal lobe and corpus callosum?</t>
+  </si>
+  <si>
+    <t>brain ct on admission</t>
+  </si>
+  <si>
+    <t>ABR-3-28-g005</t>
+  </si>
+  <si>
+    <t>what shows avm of left lower lobe?</t>
+  </si>
+  <si>
+    <t>rjt08001</t>
+  </si>
+  <si>
+    <t>what show fluid filled appendix with peri caecal fat stranding?</t>
+  </si>
+  <si>
+    <t>ct image</t>
+  </si>
+  <si>
+    <t>LI-26-89-g002</t>
+  </si>
+  <si>
+    <t>what show large well defined lobulated nonhomogenous mass extending up to  pleural surface?</t>
+  </si>
+  <si>
+    <t>ct of  thorax</t>
+  </si>
+  <si>
+    <t>IndianJOphthalmol-55-490-g004</t>
+  </si>
+  <si>
+    <t>what show recurrence of intraretinal cysts but no subretinal fluid?</t>
+  </si>
+  <si>
+    <t>Oblique Oct 6 months after intravitreal bevacizumab</t>
+  </si>
+  <si>
+    <t>PAMJ-20-288-g003</t>
+  </si>
+  <si>
+    <t>what show fasciitis with air bubbles?</t>
+  </si>
+  <si>
+    <t>ct of  pelvis</t>
+  </si>
+  <si>
+    <t>JETS-3-412-g004</t>
+  </si>
+  <si>
+    <t>what shows both healing of  liver laceration and resolution of  intra hepatic infection?</t>
+  </si>
+  <si>
+    <t>ct of  abdomen prior to drain removal</t>
+  </si>
+  <si>
+    <t>crj-02-113-g002</t>
+  </si>
+  <si>
+    <t>what show subcutaneous fluid collection in  right flank following fistulization of  complex perihepatic fluid collection?</t>
+  </si>
+  <si>
+    <t>biij-01-e4-g02</t>
+  </si>
+  <si>
+    <t>what show  intraluminal hypodense filling defect with mottled appearance?</t>
+  </si>
+  <si>
+    <t>IJOrtho-47-77-g004</t>
+  </si>
+  <si>
+    <t>what show angle between  line connecting  posterior femoral condyles and  line connecting  medial sulcus and lateral epicondyle measures  femoral condylar twist angle?</t>
+  </si>
+  <si>
+    <t>axial ct</t>
+  </si>
+  <si>
+    <t>1757-1626-0002-0000007160-001</t>
+  </si>
+  <si>
+    <t>what show differential contrast distribution?</t>
+  </si>
+  <si>
+    <t>ct abdomen with and without contrast</t>
+  </si>
+  <si>
+    <t>jls0021127380001</t>
+  </si>
+  <si>
+    <t>what  ct of  chest show?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> presence of a mass on  posterolateral aspect of  esophagus on  right</t>
+  </si>
+  <si>
+    <t>cpe-13-025-g006</t>
+  </si>
+  <si>
+    <t>what show multiple lung metastases?</t>
+  </si>
+  <si>
+    <t>chest ct</t>
+  </si>
+  <si>
+    <t>1749-8090-3-28-4</t>
+  </si>
+  <si>
+    <t>what show  annular extension of tear?</t>
+  </si>
+  <si>
+    <t>axial source image of ct angiography</t>
+  </si>
+  <si>
+    <t>JSTCR-5-32-g004</t>
+  </si>
+  <si>
+    <t>what show normal abdomen?</t>
+  </si>
+  <si>
+    <t>ct photograph</t>
+  </si>
+  <si>
+    <t>fonc-05-00038-g003</t>
+  </si>
+  <si>
+    <t>what show anomalous concentration?</t>
+  </si>
+  <si>
+    <t>image fusion of pet with ct</t>
+  </si>
+  <si>
+    <t>SNI-1-34-g003</t>
+  </si>
+  <si>
+    <t>what shows soft tissue fluid collection?</t>
+  </si>
+  <si>
+    <t>non contrast head ct of infant</t>
+  </si>
+  <si>
+    <t>2186-3326-77-0307-g006</t>
+  </si>
+  <si>
+    <t>what shows  coil mass in  left internal auditory meatus?</t>
+  </si>
+  <si>
+    <t>postoperative ct</t>
+  </si>
+  <si>
+    <t>kjae-63-65-g001</t>
+  </si>
+  <si>
+    <t>what show that mass is pressing  superior vena cava?</t>
   </si>
   <si>
     <t>a chest ct</t>
   </si>
   <si>
-    <t>1757-1626-2-83-1</t>
-  </si>
-  <si>
-    <t>what is showing right lower lobe scarring and left upper lobe small nodules with focal pleural thickening?</t>
-  </si>
-  <si>
-    <t>ct of  chest</t>
+    <t>LI-30-161-g003</t>
+  </si>
+  <si>
+    <t>what show a mass obliterating  right upper lobe bronchus?</t>
+  </si>
+  <si>
+    <t>post contrast axial ct at  level of  tracheal bifurcation</t>
+  </si>
+  <si>
+    <t>LI-30-76-g002</t>
+  </si>
+  <si>
+    <t>what shows multiple saccular pulmonary arterial aneurysms?</t>
+  </si>
+  <si>
+    <t>contrast enhanced ct angiography with three dimensional image reconstruction</t>
+  </si>
+  <si>
+    <t>IJMPO-30-35-g001</t>
+  </si>
+  <si>
+    <t>what show tumor with increased vascularity in  periphery?</t>
+  </si>
+  <si>
+    <t>contrast enhanced ct</t>
+  </si>
+  <si>
+    <t>IJCP-08-129f1</t>
+  </si>
+  <si>
+    <t>what show heterogenous enhancing mass in right kidney?</t>
+  </si>
+  <si>
+    <t>ct whole abdomen</t>
+  </si>
+  <si>
+    <t>ccr30002-0281-f2</t>
+  </si>
+  <si>
+    <t>what show stentless aortic valve in cross section?</t>
+  </si>
+  <si>
+    <t>ct image of pre-tavr</t>
+  </si>
+  <si>
+    <t>rju11902</t>
+  </si>
+  <si>
+    <t>what shows a mass in  right lower quadrant adjacent to  cecum?</t>
+  </si>
+  <si>
+    <t>ct of  abdomen with intravenous and oral contrast</t>
+  </si>
+  <si>
+    <t>1756-8722-6-69-1</t>
+  </si>
+  <si>
+    <t>what show multiple lymph nodes mainly at  right site of  neck?</t>
+  </si>
+  <si>
+    <t>ct of  neck before starting belinostat rapy</t>
+  </si>
+  <si>
+    <t>SHORTS-10-03802</t>
+  </si>
+  <si>
+    <t>what show locules of gas extending into  root of  neck and a cavity beneath  mandible?</t>
+  </si>
+  <si>
+    <t>contrast ct</t>
+  </si>
+  <si>
+    <t>1757-1626-1-413-5</t>
+  </si>
+  <si>
+    <t>what show a fracture of  clavicle with an osseous lesion within  sternocleidomastoid muscle?</t>
+  </si>
+  <si>
+    <t>reformatted coronal ct image</t>
+  </si>
+  <si>
+    <t>IJSTD-34-35-g005</t>
+  </si>
+  <si>
+    <t>what show  perforation of right side of hard palate?</t>
+  </si>
+  <si>
+    <t>ct pns</t>
+  </si>
+  <si>
+    <t>2045-3329-4-14-4</t>
+  </si>
+  <si>
+    <t>what show  massive pulmonary metastases and a left sided pneumothorax?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ct</t>
+  </si>
+  <si>
+    <t>crg0004-0498-f02</t>
+  </si>
+  <si>
+    <t>what shows air within  right ventricle?</t>
+  </si>
+  <si>
+    <t>contrast enhanced ct of  chest</t>
+  </si>
+  <si>
+    <t>1752-1947-0003-0000008704-1</t>
+  </si>
+  <si>
+    <t>what shows marked intra abdominal lymph leakage postoperatively with organ compression and abdominal compartment syndrome?</t>
+  </si>
+  <si>
+    <t>a ct of  abdomen with an oral contrast agent</t>
+  </si>
+  <si>
+    <t>IJRI-18-171-g002</t>
+  </si>
+  <si>
+    <t>what show a prominent median arcuate ligament compressing  origin of  celiac axis?</t>
+  </si>
+  <si>
+    <t>1749-799X-5-87-3</t>
+  </si>
+  <si>
+    <t>what  mri show?</t>
+  </si>
+  <si>
+    <t>cord compression due to anterior translation of  axis over atlas in a subject with atlantoaxial instability</t>
+  </si>
+  <si>
+    <t>1477-7819-11-244-2</t>
+  </si>
+  <si>
+    <t>what show ahypodense lesion in  right lobe of  liver?</t>
+  </si>
+  <si>
+    <t>contrast enhanced ct axial section of  abdomen</t>
+  </si>
+  <si>
+    <t>ymj-46-851-g001</t>
+  </si>
+  <si>
+    <t>what show  acute hemorrhage in  pineal region extending to  third ventricle?</t>
+  </si>
+  <si>
+    <t>brain ct and mr imaging</t>
+  </si>
+  <si>
+    <t>ABR-3-28-g004</t>
+  </si>
+  <si>
+    <t>what show filling defect in segmental branch of rt lower lobe?</t>
+  </si>
+  <si>
+    <t>1471-2407-13-207-4</t>
+  </si>
+  <si>
+    <t>what show disease response and a 50 left sided pneumothorax?</t>
+  </si>
+  <si>
+    <t>crg0002-0369-f01</t>
+  </si>
+  <si>
+    <t>what show extensive peritoneal seeding?</t>
+  </si>
+  <si>
+    <t>IJRI-19-216-g002</t>
+  </si>
+  <si>
+    <t>what show ossified extremities of  bigger fetus?</t>
+  </si>
+  <si>
+    <t>axial contrast enhanced ct</t>
   </si>
   <si>
     <t>1477-7819-3-3-3</t>
@@ -492,100 +1092,22 @@
     <t>post radiofrequency ablation ct image</t>
   </si>
   <si>
-    <t>crg-0006-0624-g01</t>
-  </si>
-  <si>
-    <t>what shows hemoperitoneum and a ruptured spleen?</t>
-  </si>
-  <si>
-    <t>cross section ct of  abdomen</t>
-  </si>
-  <si>
-    <t>rjt13001</t>
-  </si>
-  <si>
-    <t>what indicates osteolysis of  right condylar head ct of  head?</t>
-  </si>
-  <si>
-    <t>arrow in  ct of  head</t>
-  </si>
-  <si>
-    <t>12957_2015_654_Fig3_HTML</t>
-  </si>
-  <si>
-    <t>what show  volume of  left liver lobe?</t>
-  </si>
-  <si>
-    <t>ct image</t>
-  </si>
-  <si>
-    <t>1757-1626-0002-0000006910-001</t>
-  </si>
-  <si>
-    <t>what show a mass of  right upper lobe and multiple pure ground glass opacity of  bilateral lungs?</t>
-  </si>
-  <si>
-    <t>chest ct</t>
-  </si>
-  <si>
-    <t>SaudiMedJ-36-747-g003</t>
-  </si>
-  <si>
-    <t>what show a non occlusive saddle pulmonary embolism?</t>
-  </si>
-  <si>
-    <t>spiral ct of  chest</t>
-  </si>
-  <si>
-    <t>1755-7682-7-5-2</t>
-  </si>
-  <si>
-    <t>where is  well defined ossified mass shown?</t>
-  </si>
-  <si>
-    <t>along  anteromedial aspect of long shaft of femur</t>
-  </si>
-  <si>
-    <t>crj-02-113-g001</t>
-  </si>
-  <si>
-    <t>what show a large subhepatic and perihepatic fluid collection with internal septations?</t>
-  </si>
-  <si>
-    <t>abdominal ct</t>
-  </si>
-  <si>
-    <t>JCVJS-5-59-g013</t>
-  </si>
-  <si>
-    <t>what show  facets in alignment?</t>
-  </si>
-  <si>
-    <t>ct cut through  facets</t>
-  </si>
-  <si>
-    <t>1477-7800-5-19-4</t>
-  </si>
-  <si>
-    <t>what shows reduction of  tumor and retention of ascites?</t>
-  </si>
-  <si>
-    <t>emergency ct</t>
-  </si>
-  <si>
-    <t>1755-8166-6-50-1</t>
-  </si>
-  <si>
-    <t>what show tumor in  left medial thigh?</t>
-  </si>
-  <si>
-    <t>abdomino pelvic ct</t>
-  </si>
-  <si>
-    <t>1756-0500-6-508-1</t>
-  </si>
-  <si>
-    <t>what show shadows on liver at s4 and s8?</t>
+    <t>40792_2015_100_Fig2_HTML</t>
+  </si>
+  <si>
+    <t>what show intestinal incarceration in  right thoracic cavity through  hole through which a part of  liver has herniated?</t>
+  </si>
+  <si>
+    <t>sagittal sequence of ct</t>
+  </si>
+  <si>
+    <t>10.1177_2324709615574907-fig2</t>
+  </si>
+  <si>
+    <t>what  ct of abdomen and pelvis show?</t>
+  </si>
+  <si>
+    <t>wedge shaped non enhancing defect involving left inter polar region suggesting renal infarction</t>
   </si>
   <si>
     <t>ceo-2-100-g002</t>
@@ -597,184 +1119,145 @@
     <t>an axial non enhanced temporal bone ct</t>
   </si>
   <si>
-    <t>cro0002-0007-f01</t>
-  </si>
-  <si>
-    <t>what show a mass in  right lower quadrant?</t>
-  </si>
-  <si>
-    <t>ct of  abdomen</t>
-  </si>
-  <si>
-    <t>TJH-31-188-g5</t>
-  </si>
-  <si>
-    <t>what show a complete response?</t>
-  </si>
-  <si>
-    <t>ct at  end of treatment</t>
-  </si>
-  <si>
-    <t>jls0031330420001</t>
-  </si>
-  <si>
-    <t>what show  conduit and both kidneys?</t>
-  </si>
-  <si>
-    <t>ct urogram</t>
-  </si>
-  <si>
-    <t>JNRP-5-75-g002</t>
-  </si>
-  <si>
-    <t>what show atrophy of  entire cerebellum?</t>
-  </si>
-  <si>
-    <t>ct of brain</t>
-  </si>
-  <si>
-    <t>rb-48-04-0205-g03</t>
-  </si>
-  <si>
-    <t>what shows small calcified nodules with subpleural distribution and subpleural linear calcifications?</t>
-  </si>
-  <si>
-    <t>ct with mediastinal window</t>
-  </si>
-  <si>
-    <t>CEJU-65-00100-g003</t>
-  </si>
-  <si>
-    <t>what show  gap between  units and  binding bridge of tissue as well as  tumor?</t>
-  </si>
-  <si>
-    <t>Postoperatively reevaluated initial ct</t>
-  </si>
-  <si>
-    <t>12883_2015_266_Fig1_HTML</t>
-  </si>
-  <si>
-    <t>what shows enlarged lymph nodes involving  right axillary?</t>
-  </si>
-  <si>
-    <t>1757-1626-0002-0000006773-1</t>
-  </si>
-  <si>
-    <t>what is showing hepatomegaly and enlarged spleen with multiple hypo dense lesions?</t>
-  </si>
-  <si>
-    <t>Abdominal ct with intravenous contrast</t>
-  </si>
-  <si>
-    <t>JFCM-6-45-g002</t>
-  </si>
-  <si>
-    <t>what show a splenic abscess communicating with anor subcutaneous abscess through  lower chest wall?</t>
-  </si>
-  <si>
-    <t>an enhanced ct of  abdomen</t>
-  </si>
-  <si>
-    <t>jkns-54-42-g001</t>
-  </si>
-  <si>
-    <t>what   brain ct show?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mass effect with right subfalcine herniation</t>
-  </si>
-  <si>
-    <t>JMAS-9-173-g001</t>
-  </si>
-  <si>
-    <t>what show localized fluid collection suggestive of abscess in right iliac fossa?</t>
-  </si>
-  <si>
-    <t>ct of abdomen</t>
-  </si>
-  <si>
-    <t>IJRI-23-333-g003</t>
-  </si>
-  <si>
-    <t>what show right temporal exostosis along its entire length?</t>
-  </si>
-  <si>
-    <t>coronal plain ct</t>
-  </si>
-  <si>
-    <t>ijo-25-183-g001</t>
-  </si>
-  <si>
-    <t>what  preoperative ct of paranasal sinus show?</t>
-  </si>
-  <si>
-    <t>a bright object in floor of nasal cavity in septum</t>
-  </si>
-  <si>
-    <t>40064_2012_209_Fig2_HTML</t>
-  </si>
-  <si>
-    <t>what was suggestive of an esophageal diverticulum communicating with apical segment of right upper lobe?</t>
-  </si>
-  <si>
-    <t>1477-7819-8-45-1</t>
-  </si>
-  <si>
-    <t>what shows an area of increased uptake in  left paravertebral area?</t>
-  </si>
-  <si>
-    <t>pet ct</t>
-  </si>
-  <si>
-    <t>1470-7330-14-18-12</t>
-  </si>
-  <si>
-    <t>what show a hepatic mass on  right lobe with hyperattenuating components suggesting acute bleeding?</t>
-  </si>
-  <si>
-    <t>axial unenhanced ct image of  abdomen</t>
-  </si>
-  <si>
-    <t>jls0021127380001</t>
-  </si>
-  <si>
-    <t>what show  presence of a mass on  posterolateral aspect of  esophagus on  right?</t>
-  </si>
-  <si>
-    <t>1749-8090-3-28-4</t>
-  </si>
-  <si>
-    <t>what show  annular extension of tear?</t>
-  </si>
-  <si>
-    <t>axial source image of ct angiography</t>
-  </si>
-  <si>
-    <t>1757-1626-0002-0000008469-001</t>
-  </si>
-  <si>
-    <t>what show diffuse and ulcer like severe thickening of  sigmoid wall with sparse diverticulas and perisigmoid fat infiltration?</t>
-  </si>
-  <si>
-    <t>ct of  pelvis</t>
-  </si>
-  <si>
-    <t>IJCP-08-129f1</t>
-  </si>
-  <si>
-    <t>what show heterogenous enhancing mass in right kidney?</t>
-  </si>
-  <si>
-    <t>ct whole abdomen</t>
-  </si>
-  <si>
-    <t>LI-32-192-g003</t>
-  </si>
-  <si>
-    <t>what show a 10 mm vent in  left posterolateral wall of  thoracic descending aorta?</t>
-  </si>
-  <si>
-    <t>ct aortography with 3d reconstruction</t>
+    <t>crg0002-0027-f03</t>
+  </si>
+  <si>
+    <t>what show distal migration of pancreatic stones with diminished ductal dilatation?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ct image of  pancreas</t>
+  </si>
+  <si>
+    <t>1757-1626-2-5-2</t>
+  </si>
+  <si>
+    <t>what show diffuse peribronchovascular thickening and small nodules bilaterally?</t>
+  </si>
+  <si>
+    <t>hrct obtained with lung window</t>
+  </si>
+  <si>
+    <t>crg-0008-0169-g01</t>
+  </si>
+  <si>
+    <t>what shows a liver cyst?</t>
+  </si>
+  <si>
+    <t>preoperative abdominal ct</t>
+  </si>
+  <si>
+    <t>crg-0006-0001-g01</t>
+  </si>
+  <si>
+    <t>what show a tumor with solid and cystic components?</t>
+  </si>
+  <si>
+    <t>LI-32-190-g001</t>
+  </si>
+  <si>
+    <t>what show right sided effusion with pleural based soft tissue density and a right lower lobe mass?</t>
+  </si>
+  <si>
+    <t>1746-160X-9-9-5</t>
+  </si>
+  <si>
+    <t>what show  right sphenoid sinus was dominant and much larger than  left?</t>
+  </si>
+  <si>
+    <t>1477-7800-5-18-2</t>
+  </si>
+  <si>
+    <t>what show absence of liver involvement?</t>
+  </si>
+  <si>
+    <t>ct at initial diagnosis</t>
+  </si>
+  <si>
+    <t>APC-01-144-g004</t>
+  </si>
+  <si>
+    <t>what show calcification in  globus pallidus?</t>
+  </si>
+  <si>
+    <t>sagittal ct image of  brain</t>
+  </si>
+  <si>
+    <t>crg0004-0138-f01</t>
+  </si>
+  <si>
+    <t>what shows a round tumor measuring 20 mm in diameter below  left diaphragm just adjacent to  spleen?</t>
+  </si>
+  <si>
+    <t>dynamic ct</t>
+  </si>
+  <si>
+    <t>TJH-30-311-g2</t>
+  </si>
+  <si>
+    <t>what show embolism in pulmonary arteries and ir branches?</t>
+  </si>
+  <si>
+    <t>pulmonary ct angiography</t>
+  </si>
+  <si>
+    <t>1758-3284-1-23-2</t>
+  </si>
+  <si>
+    <t>what show a right thyroid lesion?</t>
+  </si>
+  <si>
+    <t>a neck ct with contrast of  patient</t>
+  </si>
+  <si>
+    <t>de-5-305-g2</t>
+  </si>
+  <si>
+    <t>what show enlarged left and right adrenals with areas of necrosis?</t>
+  </si>
+  <si>
+    <t>ct abdomen</t>
+  </si>
+  <si>
+    <t>1757-1626-0002-0000007836-003</t>
+  </si>
+  <si>
+    <t>what shows unilocular subcapsular fluid filled collection in  right lobe of  liver?</t>
+  </si>
+  <si>
+    <t>LI-32-192-g002</t>
+  </si>
+  <si>
+    <t>what show an organized hematoma displacing  aorta anteriorly?</t>
+  </si>
+  <si>
+    <t>contrast ct thorax</t>
+  </si>
+  <si>
+    <t>SAS-5-2010-11-001-g002</t>
+  </si>
+  <si>
+    <t>what clearly show intracranial subdural hematoma in  left hemisphere?</t>
+  </si>
+  <si>
+    <t>cranial ct of severe headache</t>
+  </si>
+  <si>
+    <t>SNI-1-52-g004</t>
+  </si>
+  <si>
+    <t>what show  compression of  sss by  tile fragment?</t>
+  </si>
+  <si>
+    <t>ct brain</t>
+  </si>
+  <si>
+    <t>1477-7819-12-247-1</t>
+  </si>
+  <si>
+    <t>what show heterogeneously enhancing mass at right level ii?</t>
+  </si>
+  <si>
+    <t>ct with enhancement</t>
   </si>
   <si>
     <t>SJG-18-143-g002</t>
@@ -786,31 +1269,112 @@
     <t>contrast enhanced cte of  abdomen</t>
   </si>
   <si>
-    <t>JCHIMP-4-25449-g002</t>
-  </si>
-  <si>
-    <t>what show false and true lumens of  ascending aorta?</t>
-  </si>
-  <si>
-    <t>non contrast chest ct</t>
-  </si>
-  <si>
-    <t>IJRI-20-11-g002</t>
-  </si>
-  <si>
-    <t>what show irregular thickening of  posterior laryngeal wall?</t>
-  </si>
-  <si>
-    <t>axial contrast enhanced ct of  larynx</t>
-  </si>
-  <si>
-    <t>1477-7819-8-12-2</t>
-  </si>
-  <si>
-    <t>what show a mass at  lumen of gallbladder?</t>
-  </si>
-  <si>
-    <t>an abdominal ct</t>
+    <t>IJU-28-102-g002</t>
+  </si>
+  <si>
+    <t>what show extensive ossifi cation in  corpora cavernosa of  penis?</t>
+  </si>
+  <si>
+    <t>coronal ct of pelvis</t>
+  </si>
+  <si>
+    <t>ijem-12-01-11463-g002</t>
+  </si>
+  <si>
+    <t>what show  absence of significant tracheal compression?</t>
+  </si>
+  <si>
+    <t>cro-0006-0569-g02</t>
+  </si>
+  <si>
+    <t>what show a markedly reduced tumor and pleural effusion after four cycles of induction chemorapy?</t>
+  </si>
+  <si>
+    <t>enhanced ct</t>
+  </si>
+  <si>
+    <t>jkns-57-379-g001</t>
+  </si>
+  <si>
+    <t>what show a large right csh with midline shift?</t>
+  </si>
+  <si>
+    <t>head ct</t>
+  </si>
+  <si>
+    <t>rjv14001</t>
+  </si>
+  <si>
+    <t>what shows innumerable cysts scattered throughout all lung fields without basal apical predilection or cardiophrenic sparing?</t>
+  </si>
+  <si>
+    <t>1758-2555-2-24-1</t>
+  </si>
+  <si>
+    <t>what   mri show?</t>
+  </si>
+  <si>
+    <t>an intact continuity of  acl graft and a possible tibial cyclops lesion</t>
+  </si>
+  <si>
+    <t>1749-7922-8-33-3</t>
+  </si>
+  <si>
+    <t>what shows large hemoperitoneum?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Axial contrast-enhanced ct image of  pelvis </t>
+  </si>
+  <si>
+    <t>JRMS-16-442-g003</t>
+  </si>
+  <si>
+    <t>what show extensive stenosis of more cervical vessels?</t>
+  </si>
+  <si>
+    <t>ct angiography of aortic arch and cervical vessels</t>
+  </si>
+  <si>
+    <t>1472-6815-5-8-2</t>
+  </si>
+  <si>
+    <t>what show  sagittal and coronal reconstruction of  tumor?</t>
+  </si>
+  <si>
+    <t>Preoperative ct</t>
+  </si>
+  <si>
+    <t>IJOrtho-45-181-g007</t>
+  </si>
+  <si>
+    <t>presence of a loose body in  posterior compartment with a possible osteochondral defect in  dorsal articular surface of capitellum</t>
+  </si>
+  <si>
+    <t>1749-7922-4-1-1</t>
+  </si>
+  <si>
+    <t>what show abnormal rotation of  proximal jejunum?</t>
+  </si>
+  <si>
+    <t>contrast enhanced ct axial images at  level of l2</t>
+  </si>
+  <si>
+    <t>JOMFP-18-84-g004</t>
+  </si>
+  <si>
+    <t>what show osseous expansile lesion?</t>
+  </si>
+  <si>
+    <t>ct 3d reconstruction image</t>
+  </si>
+  <si>
+    <t>rb-47-06-0384-g03</t>
+  </si>
+  <si>
+    <t>what more clearly shows  intraluminal component in  ivc as well as  relationship between  lesion and  hepatic hilum?</t>
+  </si>
+  <si>
+    <t>sagittal abdominal ct image</t>
   </si>
   <si>
     <t>pamj-03-20-g002</t>
@@ -822,454 +1386,13 @@
     <t>chest ct slice</t>
   </si>
   <si>
-    <t>kjr-11-4-g001</t>
-  </si>
-  <si>
-    <t>what show excellent anatomic details of pulmonary arteries with repaired coarctation of aorta?</t>
-  </si>
-  <si>
-    <t>rendered ct image with non ecg synchronized spiral scan</t>
-  </si>
-  <si>
-    <t>1757-1626-0002-0000007374-001</t>
-  </si>
-  <si>
-    <t>what shows a polychorous cyst in  left hepatic lobe with rupture in  biliary tract?</t>
-  </si>
-  <si>
-    <t>1757-1626-0002-0000006710-002</t>
-  </si>
-  <si>
-    <t>what shows  diverticulum extending towards  head of  pancreas?</t>
-  </si>
-  <si>
-    <t>contrast enhanced ct</t>
-  </si>
-  <si>
-    <t>1477-7800-5-18-2</t>
-  </si>
-  <si>
-    <t>what show absence of liver involvement?</t>
-  </si>
-  <si>
-    <t>ct at initial diagnosis</t>
-  </si>
-  <si>
-    <t>1749-7922-4-1-1</t>
-  </si>
-  <si>
-    <t>what show abnormal rotation of  proximal jejunum?</t>
-  </si>
-  <si>
-    <t>contrast enhanced ct axial images at  level of l2</t>
-  </si>
-  <si>
-    <t>IJCP-07-171f2</t>
-  </si>
-  <si>
-    <t>what show a large gastric mass associated with regional lymph node involvement?</t>
-  </si>
-  <si>
-    <t>axial contrast enhanced ct of  upper abdomen</t>
-  </si>
-  <si>
-    <t>NJMS-2-210-g004</t>
-  </si>
-  <si>
-    <t>what show extent of lesion?</t>
-  </si>
-  <si>
-    <t>coronal ct</t>
-  </si>
-  <si>
-    <t>biij-01-e4-g02</t>
-  </si>
-  <si>
-    <t>what  ct of  abdomen show?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> intraluminal hypodense filling defect with mottled appearance</t>
-  </si>
-  <si>
-    <t>cia-9-553Fig3</t>
-  </si>
-  <si>
-    <t>what show outgrowth osteophytes covering  anterior side of  vertebrae as well as local ossification of  posterior longitudinal ligament?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> axial ct</t>
-  </si>
-  <si>
-    <t>kjim-14-2-94-16f4</t>
-  </si>
-  <si>
-    <t>what  chest ct with bone setting image show?</t>
-  </si>
-  <si>
-    <t>cortical disruption and adjacent soft tissue swelling at  posterior aspect of  sternum</t>
-  </si>
-  <si>
-    <t>LI-28-52-g002</t>
-  </si>
-  <si>
-    <t>what show diffuse ground glass opacities?</t>
-  </si>
-  <si>
-    <t>ct thorax</t>
-  </si>
-  <si>
-    <t>1757-1626-0002-0000006567-001</t>
-  </si>
-  <si>
-    <t>what show right hypervascular renal mass compatible with rcc?</t>
-  </si>
-  <si>
-    <t>ymj-46-851-g001</t>
-  </si>
-  <si>
-    <t>what show  acute hemorrhage in  pineal region extending to  third ventricle?</t>
-  </si>
-  <si>
-    <t>brain ct and mr imaging</t>
-  </si>
-  <si>
-    <t>JCHIMP-5-28010-g001</t>
-  </si>
-  <si>
-    <t>what shows gastric intramural air suspicious for gastric emphysema with a small amount of air in peri gastric veins?</t>
-  </si>
-  <si>
-    <t>a non contrast ct abdomen</t>
-  </si>
-  <si>
-    <t>2186-3326-77-0307-g006</t>
-  </si>
-  <si>
-    <t>what shows  coil mass in  left internal auditory meatus?</t>
-  </si>
-  <si>
-    <t>postoperative ct</t>
-  </si>
-  <si>
-    <t>kcj-40-354-g002</t>
-  </si>
-  <si>
-    <t>what shows an esophageal mass which compresses  left atrium?</t>
-  </si>
-  <si>
-    <t>1477-7819-8-63-3</t>
-  </si>
-  <si>
-    <t>when show  size of  renal mass and  thrombus?</t>
-  </si>
-  <si>
-    <t>ct reconstruction of  abdomen</t>
-  </si>
-  <si>
-    <t>JPP-3-194-g001</t>
-  </si>
-  <si>
-    <t>what show cortical venous thrombosis?</t>
-  </si>
-  <si>
-    <t>ct brain</t>
-  </si>
-  <si>
-    <t>kjim-17-1-78-15f2</t>
-  </si>
-  <si>
-    <t>what show a large cystic mass with central low density and no mediastinal or hilar lymphadenopathy?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chest ct</t>
-  </si>
-  <si>
-    <t>1757-1626-0002-0000006450-1</t>
-  </si>
-  <si>
-    <t>what show free fluid and laceration of spleen?</t>
-  </si>
-  <si>
-    <t>transverse section on ct abdomen</t>
-  </si>
-  <si>
-    <t>JPN-6-72-g003</t>
-  </si>
-  <si>
-    <t>what is seen as a focal lesion on mri?</t>
-  </si>
-  <si>
-    <t>a seemingly diffuse infiltrative non enhancing mid brain lesion on  ct</t>
-  </si>
-  <si>
-    <t>IJPsyM-34-273-g001</t>
-  </si>
-  <si>
-    <t>where   mri of  brain show a cortical based mass lesion?</t>
-  </si>
-  <si>
-    <t>at  medial aspect of  right temporal lobe</t>
-  </si>
-  <si>
-    <t>BCN-4-169-g001</t>
-  </si>
-  <si>
-    <t>what show extensive hypodensity in left temporoparietal region suggestive of infarct?</t>
-  </si>
-  <si>
-    <t>brain ct</t>
-  </si>
-  <si>
-    <t>SNI-4-144-g007</t>
-  </si>
-  <si>
-    <t>what shows right m1 ruptured mycotic aneurysm?</t>
-  </si>
-  <si>
-    <t>ct angiogram of head</t>
-  </si>
-  <si>
-    <t>NAJMS-6-545-g001</t>
-  </si>
-  <si>
-    <t>what show extensive low attenuation with mild mass effect predominantly affecting white matter bilaterally?</t>
-  </si>
-  <si>
-    <t>ct of  head</t>
-  </si>
-  <si>
-    <t>1806-3713-jbpneu-41-01-00065-gf05</t>
-  </si>
-  <si>
-    <t>what show sphenoid sinus hypoplasia with cystic fibrosis?</t>
-  </si>
-  <si>
-    <t>axial ct of  sinuses</t>
-  </si>
-  <si>
-    <t>SJG-14-139-g001</t>
-  </si>
-  <si>
-    <t>what show abdominal cocoon in  mid abdomen with a membranous covering especially posteriorly and on  left side?</t>
-  </si>
-  <si>
-    <t>contrast enhanced axial ct image of  abdomen</t>
-  </si>
-  <si>
-    <t>JETS-3-412-g004</t>
-  </si>
-  <si>
-    <t>what shows both healing of  liver laceration and resolution of  intra hepatic infection?</t>
-  </si>
-  <si>
-    <t>ct of  abdomen prior to drain removal</t>
-  </si>
-  <si>
-    <t>rjt11803</t>
-  </si>
-  <si>
-    <t>what show free intraperitoneal gas compressing  splenic flexure?</t>
-  </si>
-  <si>
-    <t>IJMPO-30-35-g001</t>
-  </si>
-  <si>
-    <t>what show tumor with increased vascularity in  periphery?</t>
-  </si>
-  <si>
-    <t>IJCIIS-1-157-g001</t>
-  </si>
-  <si>
-    <t>what show an extent of mass?</t>
-  </si>
-  <si>
-    <t>ct of abdominopelvic region</t>
-  </si>
-  <si>
-    <t>isd-42-47-g002</t>
-  </si>
-  <si>
-    <t>what  are showing a transmigrated maxillary right lateral incisor and canine with pericoronal radiolucency?</t>
-  </si>
-  <si>
-    <t>ct sections</t>
-  </si>
-  <si>
-    <t>IJRI-18-60-g002</t>
-  </si>
-  <si>
-    <t>what show heterogeneous enhancement of  lesion?</t>
-  </si>
-  <si>
-    <t>post contrast axial ct image</t>
-  </si>
-  <si>
-    <t>JCHIMP-3-22091-g003</t>
-  </si>
-  <si>
-    <t>what show  origin of  aberrant right subclavian artery causing extrinsic compression of  esophagus?</t>
-  </si>
-  <si>
-    <t>ct chest with contrast</t>
-  </si>
-  <si>
-    <t>2045-3329-4-14-4</t>
-  </si>
-  <si>
-    <t>what show  massive pulmonary metastases and a left sided pneumothorax?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ct</t>
-  </si>
-  <si>
-    <t>SHORTS-10-09801</t>
-  </si>
-  <si>
-    <t>what shows an adrenal adenoma?</t>
-  </si>
-  <si>
-    <t>rjt04601</t>
-  </si>
-  <si>
-    <t>what show evidence of gastrojejunostomy and visible foreign body in  stomach and features of small bowel obstruction?</t>
-  </si>
-  <si>
-    <t>contrast enhanced abdominal ct in coronal view</t>
-  </si>
-  <si>
-    <t>1756-8722-6-69-1</t>
-  </si>
-  <si>
-    <t>what show multiple lymph nodes mainly at  right site of  neck?</t>
-  </si>
-  <si>
-    <t>ct of  neck before starting belinostat rapy</t>
-  </si>
-  <si>
-    <t>crj-02-168-g003</t>
-  </si>
-  <si>
-    <t>what show eradication of  varices from  descending colon without recurrence?</t>
-  </si>
-  <si>
-    <t>jsls-12-1-51-g08</t>
-  </si>
-  <si>
-    <t>what show a second patch placed laparoscopically on a recurrent incisional hernia repair without removal of  previous laparoscopically placed patch?</t>
-  </si>
-  <si>
-    <t>ct of  anterior abdominal wall</t>
-  </si>
-  <si>
-    <t>UA-2-29-g002</t>
-  </si>
-  <si>
-    <t>what show right perinephric abscess reaching superiorly upto bare area of liver with inflammed appendix at its lower end below right kidney?</t>
-  </si>
-  <si>
-    <t>sagittal reformat ct image</t>
-  </si>
-  <si>
-    <t>ijem-12-01-11463-g002</t>
-  </si>
-  <si>
-    <t>what show  absence of significant tracheal compression?</t>
-  </si>
-  <si>
-    <t>1471-2474-14-111-3</t>
-  </si>
-  <si>
-    <t>what are showing  osseous talocalcaneal coalition with  fracture line?</t>
-  </si>
-  <si>
-    <t>Two coronar slices from  ct</t>
-  </si>
-  <si>
-    <t>JCHIMP-3-20732-g001</t>
-  </si>
-  <si>
-    <t>what show a nonocclusive thrombus within  main portal vein?</t>
-  </si>
-  <si>
-    <t>contrast enhanced ct of  abdomen</t>
-  </si>
-  <si>
-    <t>IJRI-22-317-g024</t>
-  </si>
-  <si>
-    <t>what show posterior nasal sepal air cell?</t>
-  </si>
-  <si>
-    <t>TOOPHTJ-5-25_F2B</t>
-  </si>
-  <si>
-    <t>what is unable to show continuity from  cyst to  maxillary sinus?</t>
-  </si>
-  <si>
-    <t>1757-1626-0002-0000006776-004</t>
-  </si>
-  <si>
-    <t>what show left minimal sub dural hygroma with no midline shift and no evidence of cerebral edema or cerebral atrophy?</t>
-  </si>
-  <si>
-    <t>photograph of  ct brain</t>
-  </si>
-  <si>
-    <t>OL-08-02-0905-g01</t>
-  </si>
-  <si>
-    <t>what shows marked progression of  subcutaneous metastases?</t>
-  </si>
-  <si>
-    <t>enhanced abdominal ct</t>
-  </si>
-  <si>
-    <t>jocmr-03-275-g002</t>
-  </si>
-  <si>
-    <t>what show multiple infarcts in kidneys and spleen just after  bronchial artery embolization?</t>
-  </si>
-  <si>
-    <t>sfq113fig1</t>
-  </si>
-  <si>
-    <t>what show areas of low attenuation affecting  white matter of both temporal lobes and  left frontoparietal lobe?</t>
-  </si>
-  <si>
-    <t>unenhanced ct of  brain</t>
-  </si>
-  <si>
-    <t>1757-1626-3-67-3</t>
-  </si>
-  <si>
-    <t>what  mri of  left thigh show?</t>
-  </si>
-  <si>
-    <t>a sinus tract from  proximal femur</t>
-  </si>
-  <si>
-    <t>IJRI-22-317-g018</t>
-  </si>
-  <si>
-    <t>what show paradoxical left middle turbinate?</t>
-  </si>
-  <si>
-    <t>crg-0008-0291-g01</t>
-  </si>
-  <si>
-    <t>what  abdominal ct show dilatation of?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> main pancreatic duct and pancreatic stones</t>
-  </si>
-  <si>
-    <t>rjv09901</t>
-  </si>
-  <si>
-    <t>what show large air filled right abdominal mass that appears to be a septic ovarian cyst?</t>
-  </si>
-  <si>
-    <t>ct abdomen</t>
+    <t>JCIS-1-56-g005</t>
+  </si>
+  <si>
+    <t>what shows a well defined radio dense area attached to  left medial aspect of lower border of mandible?</t>
+  </si>
+  <si>
+    <t>ct with 3d reconstruction view</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,139 +1911,139 @@
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1997,161 +2120,260 @@
         <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" t="s">
         <v>107</v>
-      </c>
-      <c r="B37" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
         <v>110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
         <v>140</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C54" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2165,7 +2387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,1069 +2408,1146 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="B11" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B12" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="C19" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B29" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="B30" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="B31" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C31" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C33" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="C34" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C37" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B38" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C39" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="C41" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C42" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C43" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="C44" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B45" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="C45" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C47" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C48" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C49" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B51" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C51" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C52" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="B53" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C53" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B54" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C54" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C55" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="C57" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="B58" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="C58" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="B59" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="C59" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B61" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C61" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B62" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="C62" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="B63" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="B64" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="C64" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="B65" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="C65" t="s">
-        <v>327</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B67" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C67" t="s">
-        <v>333</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="B68" t="s">
-        <v>335</v>
+        <v>353</v>
       </c>
       <c r="C68" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>355</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C69" t="s">
-        <v>339</v>
+        <v>357</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>340</v>
+        <v>358</v>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="C70" t="s">
-        <v>342</v>
+        <v>360</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="B71" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="C71" t="s">
-        <v>345</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="B72" t="s">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="C72" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="B73" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C74" t="s">
-        <v>275</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B75" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="C75" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="B76" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="C76" t="s">
-        <v>358</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C77" t="s">
-        <v>361</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="C78" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="B79" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C79" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B80" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C80" t="s">
-        <v>195</v>
+        <v>387</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="B81" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="C81" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B82" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="C82" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>376</v>
+        <v>394</v>
       </c>
       <c r="B83" t="s">
-        <v>377</v>
+        <v>395</v>
       </c>
       <c r="C83" t="s">
-        <v>310</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>378</v>
+        <v>397</v>
       </c>
       <c r="B84" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="C84" t="s">
-        <v>380</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>381</v>
+        <v>400</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>401</v>
       </c>
       <c r="C85" t="s">
-        <v>383</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="C86" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>386</v>
+        <v>405</v>
       </c>
       <c r="B87" t="s">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="C87" t="s">
-        <v>388</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="B88" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="C88" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="B89" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="C89" t="s">
-        <v>287</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="B90" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="C90" t="s">
-        <v>287</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="B91" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="C91" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="B92" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="B93" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
+        <v>424</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="B94" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="C94" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="B95" t="s">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="C95" t="s">
-        <v>409</v>
+        <v>192</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="B96" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="B97" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="C97" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="B98" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="C98" t="s">
-        <v>417</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>439</v>
+      </c>
+      <c r="B99" t="s">
+        <v>440</v>
+      </c>
+      <c r="C99" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>442</v>
+      </c>
+      <c r="B100" t="s">
+        <v>338</v>
+      </c>
+      <c r="C100" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>444</v>
+      </c>
+      <c r="B101" t="s">
+        <v>445</v>
+      </c>
+      <c r="C101" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>447</v>
+      </c>
+      <c r="B102" t="s">
+        <v>448</v>
+      </c>
+      <c r="C102" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>450</v>
+      </c>
+      <c r="B103" t="s">
+        <v>451</v>
+      </c>
+      <c r="C103" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>453</v>
+      </c>
+      <c r="B104" t="s">
+        <v>454</v>
+      </c>
+      <c r="C104" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>456</v>
+      </c>
+      <c r="B105" t="s">
+        <v>457</v>
+      </c>
+      <c r="C105" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
